--- a/Informe_Turnos_Finalizados_Por_Lapso.xlsx
+++ b/Informe_Turnos_Finalizados_Por_Lapso.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Lapso: undefined al undefined</v>
+        <v>Lapso: 2022-10-10 al 2022-10-17</v>
       </c>
     </row>
     <row r="2">
@@ -412,7 +412,7 @@
         <v>Especialista</v>
       </c>
       <c r="B2" t="str">
-        <v>Cantidad Finalizados</v>
+        <v>Cantidad</v>
       </c>
     </row>
   </sheetData>

--- a/Informe_Turnos_Finalizados_Por_Lapso.xlsx
+++ b/Informe_Turnos_Finalizados_Por_Lapso.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Lapso: 2022-10-10 al 2022-10-17</v>
+        <v>Lapso: 2022-10-10 al 2022-11-14</v>
       </c>
     </row>
     <row r="2">
@@ -412,12 +412,22 @@
         <v>Especialista</v>
       </c>
       <c r="B2" t="str">
-        <v>Cantidad</v>
+        <v>Cantidad Finalizados</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Stefania Beatriz Marco</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Alberto Chinsky</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Informe_Turnos_Finalizados_Por_Lapso.xlsx
+++ b/Informe_Turnos_Finalizados_Por_Lapso.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Lapso: 2022-10-10 al 2022-11-14</v>
+        <v>Lapso: 2022-10-24 al 2022-11-22</v>
       </c>
     </row>
     <row r="2">
@@ -417,12 +417,18 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Stefania Beatriz Marco</v>
+        <v>Alberto Chinsky</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alberto Chinsky</v>
+        <v>Stefania Beatriz Marco</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
